--- a/testdata/APItestcase.xlsx
+++ b/testdata/APItestcase.xlsx
@@ -1050,7 +1050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1127,6 +1127,24 @@
       <c r="D3" s="0" t="inlineStr">
         <is>
           <t>{'userNames':'xxx.zh','content':'xxx'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>http://192.168.1.6:31046/hermes/device/loginTerminalInfo/{identifier}</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'identifier':'0ecc5f6d41b2311fca1230b62ee78f0a_1','username':'xxxx'}</t>
         </is>
       </c>
     </row>
